--- a/Интеграция с Directum/SNG_IntegrDirectum/Приказ на отпуск/Приказ_на_отпуск_+_записка_Расчет.xlsx
+++ b/Интеграция с Directum/SNG_IntegrDirectum/Приказ на отпуск/Приказ_на_отпуск_+_записка_Расчет.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\YandexDisk\Work\Галактика\Сургут\Интеграция с Directum\SNG_IntegrDirectum\Приказ на отпуск\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Galaktika\_git\sng\Интеграция с Directum\SNG_IntegrDirectum\Приказ на отпуск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990E2503-FCAF-4975-B372-0F810C8B23BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187135D4-C9A8-4C0A-B007-752965523CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" xr2:uid="{4188EC12-720B-4E2D-8FB3-016051FEEB65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4188EC12-720B-4E2D-8FB3-016051FEEB65}"/>
   </bookViews>
   <sheets>
     <sheet name="Карточка Приказа" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="313">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1791,6 +1791,60 @@
   <si>
     <t>https://yt.surgutneftegas.ru:4443/issue/GLX-950
 Создание шаблонов для Directum RX (Приказ на отпуск+Записка-расчет) (Батуева)</t>
+  </si>
+  <si>
+    <t>что за CATALOGS как на него выйти</t>
+  </si>
+  <si>
+    <t>передаю пустое значение</t>
+  </si>
+  <si>
+    <t>не указано как заполнять</t>
+  </si>
+  <si>
+    <t>ВСЕ ЧТО НИЖЕ ЭТО МАССИВ CONTENT</t>
+  </si>
+  <si>
+    <t>использую persons.TABNMB</t>
+  </si>
+  <si>
+    <t>Поле равно полю NameWerks</t>
+  </si>
+  <si>
+    <t>Указанная связка ошибочна в общем случае. 
+На staffstruct выхожу так:
+contdoc.CSTR == appointments.nrec and 
+appointments.STAFFSTR == STAFFSTRUCT.nrec</t>
+  </si>
+  <si>
+    <t>не указано условие - беру KlOtpusk.Kotpus = '10'
+не указано как заполнять количество дней
+взял PutVacCon.wDayCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не указано условие - беру KlOtpusk.Kotpus &lt;&gt; '10'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не указано условие - беру KlOtpusk.Kotpus 11,14,12,15,13
+</t>
+  </si>
+  <si>
+    <t>не указанокак заполнять. Или тут константа?</t>
+  </si>
+  <si>
+    <t>не указанокак заполнять. И что к чем утт относится вообще?</t>
+  </si>
+  <si>
+    <t>не указанокак заполнять.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не написано как выйти на KLOTPUSK. Сделал так:   
+ getfirst PutVacCon where ((coContDoc == PutVacCon.wTable and ContDoc.nrec == PutVacCon.cTable)) = tsOK {
+ getfirst KlOtpusk where ((PutVacCon.ResComp[1] == KlOtpusk.NRec)) = tsOK {
+ }
+Думаю тут архитектурная ошибка..
+PutVacCon - множественный </t>
   </si>
 </sst>
 </file>
@@ -1951,7 +2005,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2018,8 +2072,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2138,12 +2216,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2186,9 +2273,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2247,9 +2331,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -2316,6 +2397,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2325,62 +2409,80 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2406,41 +2508,61 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2759,20 +2881,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F1D653-FE54-4FD1-98EE-244B5E5D6CE8}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="122.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.81640625" style="2" customWidth="1"/>
     <col min="3" max="5" width="24.54296875" style="2"/>
     <col min="6" max="6" width="44.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="70" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2792,7 +2914,7 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="69" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2990,7 +3112,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="56"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
@@ -3004,7 +3126,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="71" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3020,7 +3142,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="73"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -3056,21 +3178,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0C6CCF-A083-41E2-9944-F61062C26779}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="75.6328125" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" customWidth="1"/>
+    <col min="7" max="7" width="52.453125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
@@ -3093,19 +3215,19 @@
       <c r="F1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:7" ht="101.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="108" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3117,10 +3239,10 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:7" ht="72.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="108" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3132,10 +3254,10 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="58" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
+      <c r="G4" s="109"/>
+    </row>
+    <row r="5" spans="1:7" ht="71" x14ac:dyDescent="0.4">
+      <c r="A5" s="107" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -3147,10 +3269,12 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
+      <c r="G5" s="110" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="183" x14ac:dyDescent="0.4">
+      <c r="A6" s="107" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -3161,11 +3285,13 @@
         <v>63</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="110" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="112" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -3177,10 +3303,10 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="109"/>
     </row>
     <row r="8" spans="1:7" ht="71" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="112" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -3196,10 +3322,10 @@
       <c r="F8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="109"/>
     </row>
     <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="112" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -3211,10 +3337,10 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="109"/>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.4">
+      <c r="A10" s="113" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -3224,10 +3350,12 @@
       <c r="D10" s="16"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="111" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="114" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -3239,881 +3367,978 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="110" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="115" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="109"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="109"/>
+    </row>
+    <row r="15" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="109"/>
+    </row>
+    <row r="16" spans="1:7" ht="140.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="109"/>
+    </row>
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="A17" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="11" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="109"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="15" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E18" s="23">
         <v>45175</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="109"/>
+    </row>
+    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.35">
+      <c r="A19" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="111" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D20" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E20" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="109"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="109"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="109"/>
+    </row>
+    <row r="23" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="111" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="70" x14ac:dyDescent="0.3">
+      <c r="A24" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="109"/>
+    </row>
+    <row r="26" spans="1:7" ht="62" x14ac:dyDescent="0.35">
+      <c r="A26" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="110" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="92" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="92" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="111" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="93" t="s">
+      <c r="B28" s="73"/>
+      <c r="C28" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="62" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="31" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="109"/>
+    </row>
+    <row r="29" spans="1:7" ht="139.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="122"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E29" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="30" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="111" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="212.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="109"/>
+    </row>
+    <row r="31" spans="1:7" ht="212.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="111" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A32" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E32" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="20" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="109"/>
+    </row>
+    <row r="33" spans="1:7" ht="70" x14ac:dyDescent="0.35">
+      <c r="A33" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="34" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="77" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="110" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="28" t="s">
+      <c r="B34" s="73"/>
+      <c r="C34" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D34" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E34" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="30" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="127" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="124"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="30" t="s">
+      <c r="D35" s="86"/>
+      <c r="E35" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="81" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="127"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="28" t="s">
+      <c r="B36" s="84"/>
+      <c r="C36" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D36" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E36" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="30" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="127"/>
+    </row>
+    <row r="37" spans="1:7" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="126"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="35" t="s">
+      <c r="D37" s="87"/>
+      <c r="E37" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="228" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
+      <c r="F37" s="11"/>
+      <c r="G37" s="127"/>
+    </row>
+    <row r="38" spans="1:7" ht="228" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D38" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="29" t="s">
+      <c r="F38" s="11"/>
+      <c r="G38" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="D39" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+      <c r="F39" s="11"/>
+      <c r="G39" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="30" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="30" t="s">
+      <c r="D40" s="86"/>
+      <c r="E40" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="56" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="F40" s="11"/>
+      <c r="G40" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="62" x14ac:dyDescent="0.3">
+      <c r="A41" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="30" t="s">
+      <c r="B41" s="73"/>
+      <c r="C41" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D41" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="30" t="s">
+      <c r="B42" s="84"/>
+      <c r="C42" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="56" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="D42" s="85"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="62" x14ac:dyDescent="0.3">
+      <c r="A43" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="30" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D43" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="30" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="62" x14ac:dyDescent="0.3">
+      <c r="A45" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D45" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E45" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="128" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="43" t="s">
+      <c r="D46" s="42"/>
+      <c r="E46" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="42" t="s">
+      <c r="F46" s="11"/>
+      <c r="G46" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43" t="s">
+      <c r="B47" s="40"/>
+      <c r="C47" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43" t="s">
+      <c r="D47" s="40"/>
+      <c r="E47" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43" t="s">
+      <c r="F47" s="11"/>
+      <c r="G47" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="114"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43" t="s">
+      <c r="D48" s="40"/>
+      <c r="E48" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
+      <c r="F48" s="11"/>
+      <c r="G48" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43" t="s">
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="114"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" ht="20" x14ac:dyDescent="0.3">
-      <c r="A50" s="42" t="s">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="70" x14ac:dyDescent="0.3">
+      <c r="A51" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43" t="s">
+      <c r="B51" s="40"/>
+      <c r="C51" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="45" t="s">
+      <c r="D51" s="40"/>
+      <c r="E51" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="128" t="s">
         <v>187</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43" t="s">
+      <c r="B52" s="40"/>
+      <c r="C52" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43" t="s">
+      <c r="B53" s="40"/>
+      <c r="C53" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="42" t="s">
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="128" t="s">
         <v>193</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43" t="s">
+      <c r="B55" s="40"/>
+      <c r="C55" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="42" t="s">
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43" t="s">
+      <c r="B57" s="40"/>
+      <c r="C57" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A57" s="41" t="s">
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="128" t="s">
         <v>199</v>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="43" t="s">
+      <c r="B58" s="40"/>
+      <c r="C58" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="42" t="s">
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43" t="s">
+      <c r="B59" s="40"/>
+      <c r="C59" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="42" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43" t="s">
+      <c r="B61" s="40"/>
+      <c r="C61" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="42" t="s">
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43" t="s">
+      <c r="B62" s="40"/>
+      <c r="C62" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+      <c r="A63" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46" t="s">
+      <c r="B63" s="44"/>
+      <c r="C63" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="47" t="s">
+      <c r="D63" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="E62" s="46"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="48" t="s">
+      <c r="E63" s="44"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="50" t="s">
+      <c r="B64" s="47"/>
+      <c r="C64" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="D64" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E63" s="51" t="s">
+      <c r="E64" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A64" s="49" t="s">
+      <c r="F64" s="11"/>
+      <c r="G64" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="114" t="s">
         <v>216</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="51" t="s">
+      <c r="B65" s="47"/>
+      <c r="C65" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="D64" s="48" t="s">
+      <c r="D65" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E65" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A65" s="48" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="51" t="s">
+      <c r="B66" s="47"/>
+      <c r="C66" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D66" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="E65" s="51" t="s">
+      <c r="E66" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="52" t="s">
+      <c r="F66" s="11"/>
+      <c r="G66" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B67" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="C66" s="53" t="s">
+      <c r="C67" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="53" t="s">
+      <c r="D67" s="50"/>
+      <c r="E67" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52" t="s">
+      <c r="F67" s="11"/>
+      <c r="G67" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="114"/>
+      <c r="B68" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C68" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52" t="s">
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="114"/>
+      <c r="B69" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C69" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="6"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="110" t="s">
+        <v>311</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
+  <mergeCells count="18">
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4124,8 +4349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9ED4B7-B4E4-4FD1-B408-C8A5AD8EC35E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4151,10 +4376,10 @@
       <c r="D1" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="53" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4169,8 +4394,8 @@
       <c r="D2" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="56"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
@@ -4183,8 +4408,8 @@
       <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="56"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
@@ -4197,8 +4422,8 @@
       <c r="D4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="56"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
@@ -4211,8 +4436,8 @@
       <c r="D5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="56"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" ht="87" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
@@ -4225,8 +4450,8 @@
       <c r="D6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="56"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="71" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
@@ -4241,7 +4466,7 @@
       <c r="D7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="15" t="s">
         <v>30</v>
       </c>
@@ -4257,8 +4482,8 @@
       <c r="D8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="56"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
@@ -4269,8 +4494,8 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -4283,27 +4508,27 @@
       <c r="D10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="56"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
     </row>
     <row r="12" spans="1:6" ht="98.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -4312,45 +4537,45 @@
       <c r="E12" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="54" t="s">
         <v>237</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="93" t="s">
         <v>240</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="56"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="54" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="94"/>
+      <c r="E14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -4362,25 +4587,25 @@
       <c r="E15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="56"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="55">
         <v>45175</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
@@ -4389,62 +4614,62 @@
       <c r="B17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>92</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="107" t="s">
+      <c r="E18" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>99</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="56"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="56"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
@@ -4453,16 +4678,16 @@
       <c r="B21" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
@@ -4471,7 +4696,7 @@
       <c r="B22" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -4480,257 +4705,257 @@
       <c r="E22" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="56"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="98"/>
     </row>
     <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="F24" s="56"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="61" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="61" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F26" s="56"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="58" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="89"/>
+      <c r="E27" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="F27" s="56"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="61" t="s">
+      <c r="B28" s="60"/>
+      <c r="C28" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="63" t="s">
+      <c r="D28" s="62"/>
+      <c r="E28" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="F28" s="56"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58" t="s">
+      <c r="B29" s="56"/>
+      <c r="C29" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="F29" s="56"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="56"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="58" t="s">
+      <c r="B31" s="60"/>
+      <c r="C31" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="56"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="98" t="s">
+      <c r="B32" s="101"/>
+      <c r="C32" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="F32" s="56"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="95"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="59" t="s">
+      <c r="A33" s="100"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="56"/>
+      <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="66">
         <v>172</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="56"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="54"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="105" t="s">
         <v>287</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="56"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="70" t="s">
+      <c r="B38" s="105"/>
+      <c r="C38" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="56"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="66" t="s">
+      <c r="B39" s="65"/>
+      <c r="C39" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="E39" s="68" t="s">
+      <c r="E39" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="54"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E47"/>
@@ -4752,17 +4977,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
